--- a/State Avgs.xlsx
+++ b/State Avgs.xlsx
@@ -448,287 +448,287 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Wyoming</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>578759</v>
+        <v>22244823</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5120678644664663</v>
+        <v>-0.08560681447690523</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9986857</v>
+        <v>5839926</v>
       </c>
       <c r="C3" t="n">
-        <v>1.235143048776296</v>
+        <v>1.10208876126609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>District of Columbia</t>
+          <t>Idaho</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>705749</v>
+        <v>1939033</v>
       </c>
       <c r="C4" t="n">
-        <v>4.353173238680689</v>
+        <v>0.4023264003341621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>South Dakota</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12671821</v>
+        <v>909824</v>
       </c>
       <c r="C5" t="n">
-        <v>2.331581955820726</v>
+        <v>0.4517472120937171</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>West Virginia</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21477737</v>
+        <v>1775156</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0859295543129546</v>
+        <v>1.733709290565954</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Vermont</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623989</v>
+        <v>30029572</v>
       </c>
       <c r="C7" t="n">
-        <v>2.193673236616374</v>
+        <v>-0.07047848832555702</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>South Dakota</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>884659</v>
+        <v>10912876</v>
       </c>
       <c r="C8" t="n">
-        <v>0.36369752452683</v>
+        <v>0.904798028564764</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10488084</v>
+        <v>8683619</v>
       </c>
       <c r="C9" t="n">
-        <v>1.396422235049986</v>
+        <v>4.061532380146669</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28995881</v>
+        <v>5892539</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.112725516684232</v>
+        <v>2.020622811409611</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Oregon</t>
+          <t>South Carolina</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4217737</v>
+        <v>5282634</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5162372772489795</v>
+        <v>1.098477957704558</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>Maine</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6732219</v>
+        <v>1385340</v>
       </c>
       <c r="C12" t="n">
-        <v>1.87290801916054</v>
+        <v>1.147634433515112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Utah</t>
+          <t>Indiana</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3205958</v>
+        <v>6833037</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9544347389919924</v>
+        <v>1.896168724821965</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Maryland</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6045680</v>
+        <v>7785786</v>
       </c>
       <c r="C14" t="n">
-        <v>4.409490309223431</v>
+        <v>0.8864230806189741</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1059361</v>
+        <v>10034113</v>
       </c>
       <c r="C15" t="n">
-        <v>1.646316576979475</v>
+        <v>1.243096347036348</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7614893</v>
+        <v>7359197</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8930956928850432</v>
+        <v>0.8299781177117483</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>New Hampshire</t>
+          <t>Minnesota</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1359711</v>
+        <v>5717184</v>
       </c>
       <c r="C17" t="n">
-        <v>2.903877993953727</v>
+        <v>1.944659464462629</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>West Virginia</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1792147</v>
+        <v>6164660</v>
       </c>
       <c r="C18" t="n">
-        <v>1.707894268895987</v>
+        <v>4.376248804300368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Arkansas</t>
+          <t>Iowa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3017804</v>
+        <v>3200517</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5906016399767223</v>
+        <v>1.959472431066129</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>North Dakota</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>762062</v>
+        <v>2113344</v>
       </c>
       <c r="C20" t="n">
-        <v>0.541814436110605</v>
+        <v>-1.227327814293645</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>Kansas</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3956971</v>
+        <v>2937150</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5503199237290158</v>
+        <v>0.4679776902412642</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Kansas</t>
+          <t>Vermont</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2913314</v>
+        <v>647064</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4490239142205992</v>
+        <v>2.193816354142529</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delaware</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>973764</v>
+        <v>4019800</v>
       </c>
       <c r="C23" t="n">
-        <v>3.241809106371081</v>
+        <v>-0.5059431709507012</v>
       </c>
     </row>
     <row r="24">
@@ -738,348 +738,348 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1934408</v>
+        <v>1967923</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9567883462335602</v>
+        <v>0.9768439407563139</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1068778</v>
+        <v>7051339</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2657373267923989</v>
+        <v>0.8218458281592432</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5758736</v>
+        <v>11756058</v>
       </c>
       <c r="C26" t="n">
-        <v>1.089484747618963</v>
+        <v>1.936032401861403</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nevada</t>
+          <t>North Dakota</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3080156</v>
+        <v>779261</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07263923572335231</v>
+        <v>0.589351453411273</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Kentucky</t>
+          <t>Arkansas</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4467673</v>
+        <v>3045637</v>
       </c>
       <c r="C28" t="n">
-        <v>1.419568988841909</v>
+        <v>-0.5250845369191307</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>Wyoming</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7278717</v>
+        <v>581381</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8066326479046383</v>
+        <v>-0.5078338524389479</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Mississippi</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>39512223</v>
+        <v>2940057</v>
       </c>
       <c r="C30" t="n">
-        <v>1.400869656118832</v>
+        <v>-1.791105593939947</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Iowa</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3155070</v>
+        <v>12972008</v>
       </c>
       <c r="C31" t="n">
-        <v>1.941697682243053</v>
+        <v>2.868640042806059</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Wisconsin</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5822434</v>
+        <v>3380800</v>
       </c>
       <c r="C32" t="n">
-        <v>2.006748980794273</v>
+        <v>0.956579761188261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Massachusetts</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6892503</v>
+        <v>2827500</v>
       </c>
       <c r="C33" t="n">
-        <v>2.47337370470129</v>
+        <v>2.32546776674014</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Mississippi</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2976149</v>
+        <v>4590241</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.835164071143399</v>
+        <v>-1.351387915017215</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Maine</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1344212</v>
+        <v>19677151</v>
       </c>
       <c r="C35" t="n">
-        <v>1.124879302986337</v>
+        <v>2.634608950279212</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Missouri</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6137428</v>
+        <v>4240137</v>
       </c>
       <c r="C36" t="n">
-        <v>1.141509501114434</v>
+        <v>0.5120303390149381</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Pennsylvania</t>
+          <t>Delaware</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12801989</v>
+        <v>1018396</v>
       </c>
       <c r="C37" t="n">
-        <v>2.845064160242794</v>
+        <v>3.23402557871036</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Alabama</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5639632</v>
+        <v>5074296</v>
       </c>
       <c r="C38" t="n">
-        <v>1.929600312261799</v>
+        <v>-0.1993645394064107</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Nevada</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10617423</v>
+        <v>3177772</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8677180686799585</v>
+        <v>0.06942654426787501</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Idaho</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1787065</v>
+        <v>9261699</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4044866302461754</v>
+        <v>3.374529351798869</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Kentucky</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19453561</v>
+        <v>4512310</v>
       </c>
       <c r="C41" t="n">
-        <v>2.622780988798972</v>
+        <v>1.435466774604696</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6829174</v>
+        <v>12582032</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7815233116542492</v>
+        <v>2.341497204106795</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>South Carolina</t>
+          <t>New Hampshire</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5148714</v>
+        <v>1395231</v>
       </c>
       <c r="C43" t="n">
-        <v>1.068536560401987</v>
+        <v>2.906374029600321</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8535519</v>
+        <v>10698973</v>
       </c>
       <c r="C44" t="n">
-        <v>4.028058723762307</v>
+        <v>1.44459957606624</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Louisiana</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4648794</v>
+        <v>1093734</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.383718539277886</v>
+        <v>1.645369754338519</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Connecticut</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3565287</v>
+        <v>6177957</v>
       </c>
       <c r="C46" t="n">
-        <v>2.231730119513435</v>
+        <v>1.146724550727902</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>New Mexico</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2096829</v>
+        <v>1122867</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.228163447872761</v>
+        <v>-0.2421749738600304</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>New Jersey</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>8882190</v>
+        <v>671803</v>
       </c>
       <c r="C48" t="n">
-        <v>3.36921240042534</v>
+        <v>4.45303396184038</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ohio</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>11689100</v>
+        <v>6981974</v>
       </c>
       <c r="C49" t="n">
-        <v>1.918619647756654</v>
+        <v>2.480160632523349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Alabama</t>
+          <t>California</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4903185</v>
+        <v>39029342</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.2431576340565807</v>
+        <v>1.38593929840221</v>
       </c>
     </row>
   </sheetData>
